--- a/shift/catalogs/overhead_conductors.xlsx
+++ b/shift/catalogs/overhead_conductors.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDUWADI\Desktop\NREL_Projects\ciff_track_2\seeds_new\src\catalogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epohl\Desktop\Tunisia\Current_SHIFT\shift\catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC26E6EE-69A4-4E62-B4E7-5780F77AF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895A0CE-27D7-4E91-81E9-7EF169F06352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -572,13 +584,49 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>rdc</t>
+  </si>
+  <si>
+    <t>cross_section</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Almelec_148</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>ALMELEC</t>
+  </si>
+  <si>
+    <t>Almelec_54_6</t>
+  </si>
+  <si>
+    <t>Copper_17_8</t>
+  </si>
+  <si>
+    <t>Copper_29_32</t>
+  </si>
+  <si>
+    <t>Copper_29</t>
+  </si>
+  <si>
+    <t>Copper_93</t>
+  </si>
+  <si>
+    <t>cross_section_units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +640,18 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -627,18 +687,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -726,21 +799,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}" name="Table1" displayName="Table1" ref="A1:I168" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I168" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}" name="Table1" displayName="Table1" ref="A1:L174" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:L174" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J168">
     <sortCondition ref="F1:F168"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F32C6E00-C60F-4EDB-A5D3-A60E28A396DD}" name="name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{937CC339-E58E-4433-BF65-8F048227357C}" name="diameter" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E72BD540-80AF-4EA2-9916-D45875803C9E}" name="diameterunit" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5C9F4BC6-9145-4812-9D22-AF207E955363}" name="gmrac" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{03F5CDDA-29B5-491A-A8DB-2D96FB45995D}" name="gmrunit" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E1FE4368-280E-44B4-BA7C-0E6A36296D98}" name="ampacity" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EFC08AE5-32DC-4E01-A6F7-42179E744987}" name="rac" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{409A30C6-B373-40AF-A3B7-838B01C471D4}" name="runit" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E0E154B8-12D9-4435-828A-EC69E51A3D04}" name="material" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F32C6E00-C60F-4EDB-A5D3-A60E28A396DD}" name="name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{937CC339-E58E-4433-BF65-8F048227357C}" name="diameter" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E72BD540-80AF-4EA2-9916-D45875803C9E}" name="diameterunit" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5C9F4BC6-9145-4812-9D22-AF207E955363}" name="gmrac" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{03F5CDDA-29B5-491A-A8DB-2D96FB45995D}" name="gmrunit" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E1FE4368-280E-44B4-BA7C-0E6A36296D98}" name="ampacity" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{EFC08AE5-32DC-4E01-A6F7-42179E744987}" name="rac" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{F30ACEA9-CFC9-48CD-B66E-722657EFD448}" name="rdc" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{409A30C6-B373-40AF-A3B7-838B01C471D4}" name="runit" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{E0E154B8-12D9-4435-828A-EC69E51A3D04}" name="material" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{172671BE-E0BA-41D8-8805-FDEADBE0D4A8}" name="cross_section" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{2F8CEDD2-BEA5-4FC0-AB96-9FF637540CE6}" name="cross_section_units" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,11 +1122,12 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,13 +1150,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>113</v>
       </c>
@@ -1101,14 +1187,23 @@
       <c r="G2" s="3">
         <v>151.61600000000001</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
+      <c r="H2" s="3">
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -1130,14 +1225,23 @@
       <c r="G3" s="3">
         <v>95.483500000000006</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>80</v>
+      <c r="H3" s="3">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
@@ -1159,14 +1263,23 @@
       <c r="G4" s="3">
         <v>59.683999999999997</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>80</v>
+      <c r="H4" s="3">
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -1188,14 +1301,23 @@
       <c r="G5" s="3">
         <v>47.510300000000001</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>80</v>
+      <c r="H5" s="3">
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>109</v>
       </c>
@@ -1217,14 +1339,23 @@
       <c r="G6" s="3">
         <v>37.672600000000003</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>80</v>
+      <c r="H6" s="3">
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
@@ -1246,14 +1377,23 @@
       <c r="G7" s="3">
         <v>23.726199999999999</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>80</v>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -1275,14 +1415,23 @@
       <c r="G8" s="3">
         <v>14.872199999999999</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>80</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -1304,14 +1453,23 @@
       <c r="G9" s="3">
         <v>9.3747000000000007</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>80</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
@@ -1333,14 +1491,23 @@
       <c r="G10" s="3">
         <v>3.903</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>80</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
@@ -1362,14 +1529,23 @@
       <c r="G11" s="3">
         <v>5.9025999999999996</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>80</v>
+      <c r="H11" s="3">
+        <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -1391,14 +1567,23 @@
       <c r="G12" s="3">
         <v>4.6757999999999997</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>80</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -1420,14 +1605,23 @@
       <c r="G13" s="3">
         <v>2.4529999999999998</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>80</v>
+      <c r="H13" s="3">
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
@@ -1449,14 +1643,23 @@
       <c r="G14" s="3">
         <v>3.8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>80</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
@@ -1478,14 +1681,23 @@
       <c r="G15" s="3">
         <v>3.98</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>80</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1507,14 +1719,23 @@
       <c r="G16" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>102</v>
       </c>
@@ -1536,14 +1757,23 @@
       <c r="G17" s="3">
         <v>3.01</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>80</v>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1565,14 +1795,23 @@
       <c r="G18" s="3">
         <v>3.18</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
@@ -1594,14 +1833,23 @@
       <c r="G19" s="3">
         <v>2.39</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>80</v>
+      <c r="H19" s="3">
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1623,14 +1871,23 @@
       <c r="G20" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1652,14 +1909,23 @@
       <c r="G21" s="3">
         <v>0.51900000000000002</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
@@ -1681,14 +1947,23 @@
       <c r="G22" s="3">
         <v>2.57</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>80</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
@@ -1710,14 +1985,23 @@
       <c r="G23" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>80</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
@@ -1739,14 +2023,23 @@
       <c r="G24" s="3">
         <v>1.895</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>80</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -1768,14 +2061,23 @@
       <c r="G25" s="3">
         <v>4.3</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>80</v>
+      <c r="H25" s="3">
+        <v>0</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -1797,14 +2099,23 @@
       <c r="G26" s="3">
         <v>1.5409999999999999</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>80</v>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
@@ -1826,14 +2137,23 @@
       <c r="G27" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>80</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -1855,14 +2175,23 @@
       <c r="G28" s="3">
         <v>1.5029999999999999</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>80</v>
+      <c r="H28" s="3">
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -1884,14 +2213,23 @@
       <c r="G29" s="3">
         <v>1.224</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>80</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -1913,14 +2251,23 @@
       <c r="G30" s="3">
         <v>1.69</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>80</v>
+      <c r="H30" s="3">
+        <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
@@ -1942,14 +2289,23 @@
       <c r="G31" s="3">
         <v>1.65</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>80</v>
+      <c r="H31" s="3">
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1971,14 +2327,23 @@
       <c r="G32" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -2000,14 +2365,23 @@
       <c r="G33" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -2029,14 +2403,23 @@
       <c r="G34" s="3">
         <v>1.1919999999999999</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>80</v>
+      <c r="H34" s="3">
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -2058,14 +2441,23 @@
       <c r="G35" s="3">
         <v>1.38</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>80</v>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -2087,14 +2479,23 @@
       <c r="G36" s="3">
         <v>0.97</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>80</v>
+      <c r="H36" s="3">
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2116,14 +2517,23 @@
       <c r="G37" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>89</v>
       </c>
@@ -2145,14 +2555,23 @@
       <c r="G38" s="3">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>80</v>
+      <c r="H38" s="3">
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2174,14 +2593,23 @@
       <c r="G39" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>80</v>
+      <c r="H39" s="3">
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -2203,14 +2631,23 @@
       <c r="G40" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>80</v>
+      <c r="H40" s="3">
+        <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -2232,14 +2669,23 @@
       <c r="G41" s="3">
         <v>0.76900000000000002</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>80</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -2261,14 +2707,23 @@
       <c r="G42" s="3">
         <v>0.217</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
@@ -2290,14 +2745,23 @@
       <c r="G43" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>80</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -2319,14 +2783,23 @@
       <c r="G44" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>80</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
@@ -2348,14 +2821,23 @@
       <c r="G45" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>80</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2377,14 +2859,23 @@
       <c r="G46" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>130</v>
       </c>
@@ -2406,14 +2897,23 @@
       <c r="G47" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>80</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
@@ -2435,14 +2935,23 @@
       <c r="G48" s="3">
         <v>0.72299999999999998</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>80</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -2464,14 +2973,23 @@
       <c r="G49" s="3">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>80</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -2493,14 +3011,23 @@
       <c r="G50" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>135</v>
       </c>
@@ -2522,14 +3049,23 @@
       <c r="G51" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>80</v>
+      <c r="H51" s="3">
+        <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>133</v>
       </c>
@@ -2551,14 +3087,23 @@
       <c r="G52" s="3">
         <v>0.41</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>80</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
@@ -2580,14 +3125,23 @@
       <c r="G53" s="3">
         <v>0.59199999999999997</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>80</v>
+      <c r="H53" s="3">
+        <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>140</v>
       </c>
@@ -2609,14 +3163,23 @@
       <c r="G54" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>80</v>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -2638,14 +3201,23 @@
       <c r="G55" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -2667,14 +3239,23 @@
       <c r="G56" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>80</v>
+      <c r="H56" s="3">
+        <v>0</v>
       </c>
       <c r="I56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>146</v>
       </c>
@@ -2696,14 +3277,23 @@
       <c r="G57" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>80</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>143</v>
       </c>
@@ -2725,14 +3315,23 @@
       <c r="G58" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>80</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -2754,14 +3353,23 @@
       <c r="G59" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>80</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -2783,14 +3391,23 @@
       <c r="G60" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>80</v>
+      <c r="H60" s="3">
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>149</v>
       </c>
@@ -2812,14 +3429,23 @@
       <c r="G61" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>80</v>
+      <c r="H61" s="3">
+        <v>0</v>
       </c>
       <c r="I61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -2841,14 +3467,23 @@
       <c r="G62" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>152</v>
       </c>
@@ -2870,14 +3505,23 @@
       <c r="G63" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>80</v>
+      <c r="H63" s="3">
+        <v>0</v>
       </c>
       <c r="I63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>134</v>
       </c>
@@ -2899,14 +3543,23 @@
       <c r="G64" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>80</v>
+      <c r="H64" s="3">
+        <v>0</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -2928,14 +3581,23 @@
       <c r="G65" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -2957,14 +3619,23 @@
       <c r="G66" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>80</v>
+      <c r="H66" s="3">
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -2986,14 +3657,23 @@
       <c r="G67" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>80</v>
+      <c r="H67" s="3">
+        <v>0</v>
       </c>
       <c r="I67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>158</v>
       </c>
@@ -3015,14 +3695,23 @@
       <c r="G68" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>80</v>
+      <c r="H68" s="3">
+        <v>0</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
@@ -3044,14 +3733,23 @@
       <c r="G69" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>80</v>
+      <c r="H69" s="3">
+        <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -3073,14 +3771,23 @@
       <c r="G70" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>80</v>
+      <c r="H70" s="3">
+        <v>0</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>24</v>
       </c>
@@ -3102,14 +3809,23 @@
       <c r="G71" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>139</v>
       </c>
@@ -3131,14 +3847,23 @@
       <c r="G72" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>80</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
@@ -3160,14 +3885,23 @@
       <c r="G73" s="3">
         <v>0.216</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>80</v>
+      <c r="H73" s="3">
+        <v>0</v>
       </c>
       <c r="I73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>25</v>
       </c>
@@ -3189,14 +3923,23 @@
       <c r="G74" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>163</v>
       </c>
@@ -3218,14 +3961,23 @@
       <c r="G75" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>80</v>
+      <c r="H75" s="3">
+        <v>0</v>
       </c>
       <c r="I75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>26</v>
       </c>
@@ -3247,14 +3999,23 @@
       <c r="G76" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
@@ -3276,14 +4037,23 @@
       <c r="G77" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>80</v>
+      <c r="H77" s="3">
+        <v>0</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>142</v>
       </c>
@@ -3305,14 +4075,23 @@
       <c r="G78" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>80</v>
+      <c r="H78" s="3">
+        <v>0</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>27</v>
       </c>
@@ -3334,14 +4113,23 @@
       <c r="G79" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>131</v>
       </c>
@@ -3363,14 +4151,23 @@
       <c r="G80" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>80</v>
+      <c r="H80" s="3">
+        <v>0</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>132</v>
       </c>
@@ -3392,14 +4189,23 @@
       <c r="G81" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>80</v>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -3421,14 +4227,23 @@
       <c r="G82" s="3">
         <v>0.186</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>80</v>
+      <c r="H82" s="3">
+        <v>0</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>28</v>
       </c>
@@ -3450,14 +4265,23 @@
       <c r="G83" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
@@ -3479,14 +4303,23 @@
       <c r="G84" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>80</v>
+      <c r="H84" s="3">
+        <v>0</v>
       </c>
       <c r="I84" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
@@ -3508,14 +4341,23 @@
       <c r="G85" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -3537,14 +4379,23 @@
       <c r="G86" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>80</v>
+      <c r="H86" s="3">
+        <v>0</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -3566,14 +4417,23 @@
       <c r="G87" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>148</v>
       </c>
@@ -3595,14 +4455,23 @@
       <c r="G88" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>80</v>
+      <c r="H88" s="3">
+        <v>0</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>178</v>
       </c>
@@ -3624,14 +4493,23 @@
       <c r="G89" s="3">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>80</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -3653,14 +4531,23 @@
       <c r="G90" s="3">
         <v>0.215</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>80</v>
+      <c r="H90" s="3">
+        <v>0</v>
       </c>
       <c r="I90" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>137</v>
       </c>
@@ -3682,14 +4569,23 @@
       <c r="G91" s="3">
         <v>0.215</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>80</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>169</v>
       </c>
@@ -3711,14 +4607,23 @@
       <c r="G92" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>80</v>
+      <c r="H92" s="3">
+        <v>0</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>31</v>
       </c>
@@ -3740,14 +4645,23 @@
       <c r="G93" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>32</v>
       </c>
@@ -3769,14 +4683,23 @@
       <c r="G94" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>33</v>
       </c>
@@ -3798,14 +4721,23 @@
       <c r="G95" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="3">
+        <v>0</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -3827,14 +4759,23 @@
       <c r="G96" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>144</v>
       </c>
@@ -3856,14 +4797,23 @@
       <c r="G97" s="3">
         <v>0.1845</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>80</v>
+      <c r="H97" s="3">
+        <v>0</v>
       </c>
       <c r="I97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>145</v>
       </c>
@@ -3885,14 +4835,23 @@
       <c r="G98" s="3">
         <v>0.1845</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>80</v>
+      <c r="H98" s="3">
+        <v>0</v>
       </c>
       <c r="I98" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J98" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>153</v>
       </c>
@@ -3914,14 +4873,23 @@
       <c r="G99" s="3">
         <v>0.216</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>80</v>
+      <c r="H99" s="3">
+        <v>0</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>154</v>
       </c>
@@ -3943,14 +4911,23 @@
       <c r="G100" s="3">
         <v>0.216</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>80</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>176</v>
       </c>
@@ -3972,14 +4949,23 @@
       <c r="G101" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>80</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -4001,14 +4987,23 @@
       <c r="G102" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>182</v>
       </c>
@@ -4030,14 +5025,23 @@
       <c r="G103" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>80</v>
+      <c r="H103" s="3">
+        <v>0</v>
       </c>
       <c r="I103" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J103" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -4059,14 +5063,23 @@
       <c r="G104" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>37</v>
       </c>
@@ -4088,14 +5101,23 @@
       <c r="G105" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="3">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="3">
+        <v>0</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>150</v>
       </c>
@@ -4117,14 +5139,23 @@
       <c r="G106" s="3">
         <v>0.16189999999999999</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>80</v>
+      <c r="H106" s="3">
+        <v>0</v>
       </c>
       <c r="I106" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K106" s="3">
+        <v>0</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>159</v>
       </c>
@@ -4146,14 +5177,23 @@
       <c r="G107" s="3">
         <v>0.18590000000000001</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>80</v>
+      <c r="H107" s="3">
+        <v>0</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>160</v>
       </c>
@@ -4175,14 +5215,23 @@
       <c r="G108" s="3">
         <v>0.18590000000000001</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>80</v>
+      <c r="H108" s="3">
+        <v>0</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="3">
+        <v>0</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
@@ -4204,14 +5253,23 @@
       <c r="G109" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="3">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>165</v>
       </c>
@@ -4233,14 +5291,23 @@
       <c r="G110" s="3">
         <v>0.17749999999999999</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>80</v>
+      <c r="H110" s="3">
+        <v>0</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -4262,14 +5329,23 @@
       <c r="G111" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>164</v>
       </c>
@@ -4291,14 +5367,23 @@
       <c r="G112" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>80</v>
+      <c r="H112" s="3">
+        <v>0</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>40</v>
       </c>
@@ -4320,14 +5405,23 @@
       <c r="G113" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I113" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>43</v>
       </c>
@@ -4349,14 +5443,23 @@
       <c r="G114" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I114" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="3">
+        <v>0</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>168</v>
       </c>
@@ -4378,14 +5481,23 @@
       <c r="G115" s="3">
         <v>0.16880000000000001</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>80</v>
+      <c r="H115" s="3">
+        <v>0</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="3">
+        <v>0</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>41</v>
       </c>
@@ -4407,14 +5519,23 @@
       <c r="G116" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="3">
+        <v>0</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>42</v>
       </c>
@@ -4436,14 +5557,23 @@
       <c r="G117" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>151</v>
       </c>
@@ -4465,14 +5595,23 @@
       <c r="G118" s="3">
         <v>0.14430000000000001</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>80</v>
+      <c r="H118" s="3">
+        <v>0</v>
       </c>
       <c r="I118" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J118" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K118" s="3">
+        <v>0</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>166</v>
       </c>
@@ -4494,14 +5633,23 @@
       <c r="G119" s="3">
         <v>0.1618</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>80</v>
+      <c r="H119" s="3">
+        <v>0</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>167</v>
       </c>
@@ -4523,14 +5671,23 @@
       <c r="G120" s="3">
         <v>0.1618</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>80</v>
+      <c r="H120" s="3">
+        <v>0</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>44</v>
       </c>
@@ -4552,14 +5709,23 @@
       <c r="G121" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I121" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>45</v>
       </c>
@@ -4581,14 +5747,23 @@
       <c r="G122" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="3">
+        <v>0</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>46</v>
       </c>
@@ -4610,14 +5785,23 @@
       <c r="G123" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="3">
+        <v>0</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>170</v>
       </c>
@@ -4639,14 +5823,23 @@
       <c r="G124" s="3">
         <v>0.16009999999999999</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>80</v>
+      <c r="H124" s="3">
+        <v>0</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>47</v>
       </c>
@@ -4668,14 +5861,23 @@
       <c r="G125" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>175</v>
       </c>
@@ -4697,14 +5899,23 @@
       <c r="G126" s="3">
         <v>0.1482</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>80</v>
+      <c r="H126" s="3">
+        <v>0</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>156</v>
       </c>
@@ -4726,14 +5937,23 @@
       <c r="G127" s="3">
         <v>0.1303</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>80</v>
+      <c r="H127" s="3">
+        <v>0</v>
       </c>
       <c r="I127" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K127" s="3">
+        <v>0</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>157</v>
       </c>
@@ -4755,14 +5975,23 @@
       <c r="G128" s="3">
         <v>0.1303</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>80</v>
+      <c r="H128" s="3">
+        <v>0</v>
       </c>
       <c r="I128" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J128" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K128" s="3">
+        <v>0</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>173</v>
       </c>
@@ -4784,14 +6013,23 @@
       <c r="G129" s="3">
         <v>0.14419999999999999</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>80</v>
+      <c r="H129" s="3">
+        <v>0</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>174</v>
       </c>
@@ -4813,14 +6051,23 @@
       <c r="G130" s="3">
         <v>0.14419999999999999</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>80</v>
+      <c r="H130" s="3">
+        <v>0</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>48</v>
       </c>
@@ -4842,14 +6089,23 @@
       <c r="G131" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="3">
+        <v>0</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>49</v>
       </c>
@@ -4871,14 +6127,23 @@
       <c r="G132" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -4900,14 +6165,23 @@
       <c r="G133" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I133" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="3">
+        <v>0</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -4929,14 +6203,23 @@
       <c r="G134" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="3">
+        <v>0</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>50</v>
       </c>
@@ -4958,14 +6241,23 @@
       <c r="G135" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I135" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="3">
+        <v>0</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>179</v>
       </c>
@@ -4987,14 +6279,23 @@
       <c r="G136" s="3">
         <v>0.1288</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>80</v>
+      <c r="H136" s="3">
+        <v>0</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -5016,14 +6317,23 @@
       <c r="G137" s="3">
         <v>0.13780000000000001</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>80</v>
+      <c r="H137" s="3">
+        <v>0</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>51</v>
       </c>
@@ -5045,14 +6355,23 @@
       <c r="G138" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I138" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
@@ -5074,14 +6393,23 @@
       <c r="G139" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>180</v>
       </c>
@@ -5103,14 +6431,23 @@
       <c r="G140" s="3">
         <v>0.1288</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>80</v>
+      <c r="H140" s="3">
+        <v>0</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -5132,14 +6469,23 @@
       <c r="G141" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>162</v>
       </c>
@@ -5161,14 +6507,23 @@
       <c r="G142" s="3">
         <v>0.1095</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>80</v>
+      <c r="H142" s="3">
+        <v>0</v>
       </c>
       <c r="I142" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J142" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -5190,14 +6545,23 @@
       <c r="G143" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I143" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>57</v>
       </c>
@@ -5219,14 +6583,23 @@
       <c r="G144" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I144" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>58</v>
       </c>
@@ -5248,14 +6621,23 @@
       <c r="G145" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I145" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>59</v>
       </c>
@@ -5277,14 +6659,23 @@
       <c r="G146" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I146" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
@@ -5306,14 +6697,23 @@
       <c r="G147" s="3">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>80</v>
+      <c r="H147" s="3">
+        <v>0</v>
       </c>
       <c r="I147" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J147" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K147" s="3">
+        <v>0</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>60</v>
       </c>
@@ -5335,14 +6735,23 @@
       <c r="G148" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="3">
+        <v>0</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>61</v>
       </c>
@@ -5364,14 +6773,23 @@
       <c r="G149" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I149" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>177</v>
       </c>
@@ -5393,14 +6811,23 @@
       <c r="G150" s="3">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="H150" s="3" t="s">
-        <v>80</v>
+      <c r="H150" s="3">
+        <v>0</v>
       </c>
       <c r="I150" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J150" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K150" s="3">
+        <v>0</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>62</v>
       </c>
@@ -5422,14 +6849,23 @@
       <c r="G151" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I151" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>63</v>
       </c>
@@ -5451,14 +6887,23 @@
       <c r="G152" s="3">
         <v>0.02</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I152" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="3">
+        <v>0</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>64</v>
       </c>
@@ -5480,14 +6925,23 @@
       <c r="G153" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I153" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>65</v>
       </c>
@@ -5509,14 +6963,23 @@
       <c r="G154" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I154" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="3">
+        <v>0</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>66</v>
       </c>
@@ -5538,14 +7001,23 @@
       <c r="G155" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I155" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>67</v>
       </c>
@@ -5567,14 +7039,23 @@
       <c r="G156" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I156" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="3">
+        <v>0</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>68</v>
       </c>
@@ -5596,14 +7077,23 @@
       <c r="G157" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I157" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="3">
+        <v>0</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>69</v>
       </c>
@@ -5625,14 +7115,23 @@
       <c r="G158" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>70</v>
       </c>
@@ -5654,14 +7153,23 @@
       <c r="G159" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I159" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>71</v>
       </c>
@@ -5683,14 +7191,23 @@
       <c r="G160" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I160" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="3">
+        <v>0</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>72</v>
       </c>
@@ -5712,14 +7229,23 @@
       <c r="G161" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I161" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>73</v>
       </c>
@@ -5741,14 +7267,23 @@
       <c r="G162" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I162" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>74</v>
       </c>
@@ -5770,14 +7305,23 @@
       <c r="G163" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I163" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>75</v>
       </c>
@@ -5799,14 +7343,23 @@
       <c r="G164" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>77</v>
       </c>
@@ -5828,14 +7381,23 @@
       <c r="G165" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I165" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="3">
+        <v>0</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>76</v>
       </c>
@@ -5857,14 +7419,23 @@
       <c r="G166" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>78</v>
       </c>
@@ -5886,14 +7457,23 @@
       <c r="G167" s="3">
         <v>0.01</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I167" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>79</v>
       </c>
@@ -5915,11 +7495,248 @@
       <c r="G168" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I168" s="3" t="s">
-        <v>11</v>
+      <c r="J168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B169" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D169" s="5">
+        <v>2.0121555762000004E-2</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="5">
+        <v>365</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0</v>
+      </c>
+      <c r="H169" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K169" s="3">
+        <v>148</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="3">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1.2072933457200001E-2</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="5">
+        <v>190</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0</v>
+      </c>
+      <c r="H170" s="5">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K170" s="3">
+        <v>54.6</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="5">
+        <v>4.76</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" s="5">
+        <v>6.0811812969600006E-3</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="3">
+        <v>130</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0</v>
+      </c>
+      <c r="H171" s="5">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K171" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B172" s="5">
+        <v>6.11</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D172" s="5">
+        <v>7.805886076560002E-3</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="3">
+        <v>170</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0</v>
+      </c>
+      <c r="H172" s="5">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K172" s="3">
+        <v>29.32</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" s="5">
+        <v>6.11</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" s="5">
+        <v>7.805886076560002E-3</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="3">
+        <v>170</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K173" s="3">
+        <v>29</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B174" s="5">
+        <v>10.88</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1.3899842964480004E-2</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="3">
+        <v>355</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+      <c r="H174" s="5">
+        <v>7.9490000000000005E-2</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K174" s="3">
+        <v>93</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/shift/catalogs/overhead_conductors.xlsx
+++ b/shift/catalogs/overhead_conductors.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epohl\Desktop\Tunisia\Current_SHIFT\shift\catalogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDUWADI\Desktop\NREL_Projects\ciff_track_2\seeds_new\src\catalogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3895A0CE-27D7-4E91-81E9-7EF169F06352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC26E6EE-69A4-4E62-B4E7-5780F77AF6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="184">
   <si>
     <t>name</t>
   </si>
@@ -584,49 +572,13 @@
   </si>
   <si>
     <t>material</t>
-  </si>
-  <si>
-    <t>rdc</t>
-  </si>
-  <si>
-    <t>cross_section</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Almelec_148</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>ALMELEC</t>
-  </si>
-  <si>
-    <t>Almelec_54_6</t>
-  </si>
-  <si>
-    <t>Copper_17_8</t>
-  </si>
-  <si>
-    <t>Copper_29_32</t>
-  </si>
-  <si>
-    <t>Copper_29</t>
-  </si>
-  <si>
-    <t>Copper_93</t>
-  </si>
-  <si>
-    <t>cross_section_units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,18 +592,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,31 +627,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -799,24 +726,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}" name="Table1" displayName="Table1" ref="A1:L174" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:L174" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}" name="Table1" displayName="Table1" ref="A1:I168" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+  <autoFilter ref="A1:I168" xr:uid="{2888EDB5-A302-4FEE-9622-AB14DEB5E355}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I168">
     <sortCondition ref="F1:F168"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F32C6E00-C60F-4EDB-A5D3-A60E28A396DD}" name="name" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{937CC339-E58E-4433-BF65-8F048227357C}" name="diameter" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E72BD540-80AF-4EA2-9916-D45875803C9E}" name="diameterunit" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5C9F4BC6-9145-4812-9D22-AF207E955363}" name="gmrac" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{03F5CDDA-29B5-491A-A8DB-2D96FB45995D}" name="gmrunit" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E1FE4368-280E-44B4-BA7C-0E6A36296D98}" name="ampacity" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{EFC08AE5-32DC-4E01-A6F7-42179E744987}" name="rac" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F30ACEA9-CFC9-48CD-B66E-722657EFD448}" name="rdc" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{409A30C6-B373-40AF-A3B7-838B01C471D4}" name="runit" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E0E154B8-12D9-4435-828A-EC69E51A3D04}" name="material" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{172671BE-E0BA-41D8-8805-FDEADBE0D4A8}" name="cross_section" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2F8CEDD2-BEA5-4FC0-AB96-9FF637540CE6}" name="cross_section_units" dataDxfId="0"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F32C6E00-C60F-4EDB-A5D3-A60E28A396DD}" name="name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{937CC339-E58E-4433-BF65-8F048227357C}" name="diameter" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E72BD540-80AF-4EA2-9916-D45875803C9E}" name="diameterunit" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5C9F4BC6-9145-4812-9D22-AF207E955363}" name="gmrac" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{03F5CDDA-29B5-491A-A8DB-2D96FB45995D}" name="gmrunit" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E1FE4368-280E-44B4-BA7C-0E6A36296D98}" name="ampacity" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EFC08AE5-32DC-4E01-A6F7-42179E744987}" name="rac" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{409A30C6-B373-40AF-A3B7-838B01C471D4}" name="runit" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E0E154B8-12D9-4435-828A-EC69E51A3D04}" name="material" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L174"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,12 +1046,11 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,22 +1073,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>113</v>
       </c>
@@ -1187,23 +1101,14 @@
       <c r="G2" s="3">
         <v>151.61600000000001</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
+      <c r="H2" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>112</v>
       </c>
@@ -1225,23 +1130,14 @@
       <c r="G3" s="3">
         <v>95.483500000000006</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
+      <c r="H3" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
@@ -1263,23 +1159,14 @@
       <c r="G4" s="3">
         <v>59.683999999999997</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
+      <c r="H4" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -1301,23 +1188,14 @@
       <c r="G5" s="3">
         <v>47.510300000000001</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
+      <c r="H5" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>109</v>
       </c>
@@ -1339,23 +1217,14 @@
       <c r="G6" s="3">
         <v>37.672600000000003</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
+      <c r="H6" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
@@ -1377,23 +1246,14 @@
       <c r="G7" s="3">
         <v>23.726199999999999</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
+      <c r="H7" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -1415,23 +1275,14 @@
       <c r="G8" s="3">
         <v>14.872199999999999</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
@@ -1453,23 +1304,14 @@
       <c r="G9" s="3">
         <v>9.3747000000000007</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>101</v>
       </c>
@@ -1491,23 +1333,14 @@
       <c r="G10" s="3">
         <v>3.903</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
@@ -1529,23 +1362,14 @@
       <c r="G11" s="3">
         <v>5.9025999999999996</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
+      <c r="H11" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -1567,23 +1391,14 @@
       <c r="G12" s="3">
         <v>4.6757999999999997</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -1605,23 +1420,14 @@
       <c r="G13" s="3">
         <v>2.4529999999999998</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
+      <c r="H13" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
@@ -1643,23 +1449,14 @@
       <c r="G14" s="3">
         <v>3.8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
@@ -1681,23 +1478,14 @@
       <c r="G15" s="3">
         <v>3.98</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1719,23 +1507,14 @@
       <c r="G16" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="H16" s="3">
-        <v>0</v>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>102</v>
       </c>
@@ -1757,23 +1536,14 @@
       <c r="G17" s="3">
         <v>3.01</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
+      <c r="H17" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1795,23 +1565,14 @@
       <c r="G18" s="3">
         <v>3.18</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
+      <c r="H18" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
@@ -1833,23 +1594,14 @@
       <c r="G19" s="3">
         <v>2.39</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
+      <c r="H19" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1871,23 +1623,14 @@
       <c r="G20" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1909,23 +1652,14 @@
       <c r="G21" s="3">
         <v>0.51900000000000002</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
@@ -1947,23 +1681,14 @@
       <c r="G22" s="3">
         <v>2.57</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
@@ -1985,23 +1710,14 @@
       <c r="G23" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
+      <c r="H23" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>98</v>
       </c>
@@ -2023,23 +1739,14 @@
       <c r="G24" s="3">
         <v>1.895</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>124</v>
       </c>
@@ -2061,23 +1768,14 @@
       <c r="G25" s="3">
         <v>4.3</v>
       </c>
-      <c r="H25" s="3">
-        <v>0</v>
+      <c r="H25" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>90</v>
       </c>
@@ -2099,23 +1797,14 @@
       <c r="G26" s="3">
         <v>1.5409999999999999</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
+      <c r="H26" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>91</v>
       </c>
@@ -2137,23 +1826,14 @@
       <c r="G27" s="3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
+      <c r="H27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>95</v>
       </c>
@@ -2175,23 +1855,14 @@
       <c r="G28" s="3">
         <v>1.5029999999999999</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
+      <c r="H28" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -2213,23 +1884,14 @@
       <c r="G29" s="3">
         <v>1.224</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -2251,23 +1913,14 @@
       <c r="G30" s="3">
         <v>1.69</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
+      <c r="H30" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
@@ -2289,23 +1942,14 @@
       <c r="G31" s="3">
         <v>1.65</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
+      <c r="H31" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -2327,23 +1971,14 @@
       <c r="G32" s="3">
         <v>0.33200000000000002</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -2365,23 +2000,14 @@
       <c r="G33" s="3">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>92</v>
       </c>
@@ -2403,23 +2029,14 @@
       <c r="G34" s="3">
         <v>1.1919999999999999</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
+      <c r="H34" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -2441,23 +2058,14 @@
       <c r="G35" s="3">
         <v>1.38</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
+      <c r="H35" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -2479,23 +2087,14 @@
       <c r="G36" s="3">
         <v>0.97</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
+      <c r="H36" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -2517,23 +2116,14 @@
       <c r="G37" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>89</v>
       </c>
@@ -2555,23 +2145,14 @@
       <c r="G38" s="3">
         <v>0.94499999999999995</v>
       </c>
-      <c r="H38" s="3">
-        <v>0</v>
+      <c r="H38" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2593,23 +2174,14 @@
       <c r="G39" s="3">
         <v>0.96399999999999997</v>
       </c>
-      <c r="H39" s="3">
-        <v>0</v>
+      <c r="H39" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -2631,23 +2203,14 @@
       <c r="G40" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
+      <c r="H40" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>119</v>
       </c>
@@ -2669,23 +2232,14 @@
       <c r="G41" s="3">
         <v>0.76900000000000002</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>18</v>
       </c>
@@ -2707,23 +2261,14 @@
       <c r="G42" s="3">
         <v>0.217</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
@@ -2745,23 +2290,14 @@
       <c r="G43" s="3">
         <v>0.61099999999999999</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
@@ -2783,23 +2319,14 @@
       <c r="G44" s="3">
         <v>0.76500000000000001</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
@@ -2821,23 +2348,14 @@
       <c r="G45" s="3">
         <v>0.89500000000000002</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>19</v>
       </c>
@@ -2859,23 +2377,14 @@
       <c r="G46" s="3">
         <v>0.17599999999999999</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>130</v>
       </c>
@@ -2897,23 +2406,14 @@
       <c r="G47" s="3">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
@@ -2935,23 +2435,14 @@
       <c r="G48" s="3">
         <v>0.72299999999999998</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -2973,23 +2464,14 @@
       <c r="G49" s="3">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -3011,23 +2493,14 @@
       <c r="G50" s="3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H50" s="3">
-        <v>0</v>
+      <c r="H50" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>135</v>
       </c>
@@ -3049,23 +2522,14 @@
       <c r="G51" s="3">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H51" s="3">
-        <v>0</v>
+      <c r="H51" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>133</v>
       </c>
@@ -3087,23 +2551,14 @@
       <c r="G52" s="3">
         <v>0.41</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>128</v>
       </c>
@@ -3125,23 +2580,14 @@
       <c r="G53" s="3">
         <v>0.59199999999999997</v>
       </c>
-      <c r="H53" s="3">
-        <v>0</v>
+      <c r="H53" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>140</v>
       </c>
@@ -3163,23 +2609,14 @@
       <c r="G54" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
+      <c r="H54" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -3201,23 +2638,14 @@
       <c r="G55" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="H55" s="3">
-        <v>0</v>
+      <c r="H55" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -3239,23 +2667,14 @@
       <c r="G56" s="3">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H56" s="3">
-        <v>0</v>
+      <c r="H56" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>146</v>
       </c>
@@ -3277,23 +2696,14 @@
       <c r="G57" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>143</v>
       </c>
@@ -3315,23 +2725,14 @@
       <c r="G58" s="3">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -3353,23 +2754,14 @@
       <c r="G59" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>122</v>
       </c>
@@ -3391,23 +2783,14 @@
       <c r="G60" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
+      <c r="H60" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>149</v>
       </c>
@@ -3429,23 +2812,14 @@
       <c r="G61" s="3">
         <v>0.25800000000000001</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
+      <c r="H61" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -3467,23 +2841,14 @@
       <c r="G62" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>152</v>
       </c>
@@ -3505,23 +2870,14 @@
       <c r="G63" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="H63" s="3">
-        <v>0</v>
+      <c r="H63" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>134</v>
       </c>
@@ -3543,23 +2899,14 @@
       <c r="G64" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="H64" s="3">
-        <v>0</v>
+      <c r="H64" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>23</v>
       </c>
@@ -3581,23 +2928,14 @@
       <c r="G65" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="H65" s="3">
-        <v>0</v>
+      <c r="H65" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>127</v>
       </c>
@@ -3619,23 +2957,14 @@
       <c r="G66" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
+      <c r="H66" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J66" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>129</v>
       </c>
@@ -3657,23 +2986,14 @@
       <c r="G67" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H67" s="3">
-        <v>0</v>
+      <c r="H67" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J67" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>158</v>
       </c>
@@ -3695,23 +3015,14 @@
       <c r="G68" s="3">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H68" s="3">
-        <v>0</v>
+      <c r="H68" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J68" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
@@ -3733,23 +3044,14 @@
       <c r="G69" s="3">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H69" s="3">
-        <v>0</v>
+      <c r="H69" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -3771,23 +3073,14 @@
       <c r="G70" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
+      <c r="H70" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>24</v>
       </c>
@@ -3809,23 +3102,14 @@
       <c r="G71" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
+      <c r="H71" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>139</v>
       </c>
@@ -3847,23 +3131,14 @@
       <c r="G72" s="3">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
+      <c r="H72" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
@@ -3885,23 +3160,14 @@
       <c r="G73" s="3">
         <v>0.216</v>
       </c>
-      <c r="H73" s="3">
-        <v>0</v>
+      <c r="H73" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J73" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>25</v>
       </c>
@@ -3923,23 +3189,14 @@
       <c r="G74" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="H74" s="3">
-        <v>0</v>
+      <c r="H74" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>163</v>
       </c>
@@ -3961,23 +3218,14 @@
       <c r="G75" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H75" s="3">
-        <v>0</v>
+      <c r="H75" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>26</v>
       </c>
@@ -3999,23 +3247,14 @@
       <c r="G76" s="3">
         <v>6.2E-2</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
+      <c r="H76" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>141</v>
       </c>
@@ -4037,23 +3276,14 @@
       <c r="G77" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H77" s="3">
-        <v>0</v>
+      <c r="H77" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>142</v>
       </c>
@@ -4075,23 +3305,14 @@
       <c r="G78" s="3">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H78" s="3">
-        <v>0</v>
+      <c r="H78" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>27</v>
       </c>
@@ -4113,23 +3334,14 @@
       <c r="G79" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H79" s="3">
-        <v>0</v>
+      <c r="H79" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>131</v>
       </c>
@@ -4151,23 +3363,14 @@
       <c r="G80" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H80" s="3">
-        <v>0</v>
+      <c r="H80" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J80" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>132</v>
       </c>
@@ -4189,23 +3392,14 @@
       <c r="G81" s="3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
+      <c r="H81" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J81" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -4227,23 +3421,14 @@
       <c r="G82" s="3">
         <v>0.186</v>
       </c>
-      <c r="H82" s="3">
-        <v>0</v>
+      <c r="H82" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>28</v>
       </c>
@@ -4265,23 +3450,14 @@
       <c r="G83" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>172</v>
       </c>
@@ -4303,23 +3479,14 @@
       <c r="G84" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="H84" s="3">
-        <v>0</v>
+      <c r="H84" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
@@ -4341,23 +3508,14 @@
       <c r="G85" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H85" s="3">
-        <v>0</v>
+      <c r="H85" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
@@ -4379,23 +3537,14 @@
       <c r="G86" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H86" s="3">
-        <v>0</v>
+      <c r="H86" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
@@ -4417,23 +3566,14 @@
       <c r="G87" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="H87" s="3">
-        <v>0</v>
+      <c r="H87" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>148</v>
       </c>
@@ -4455,23 +3595,14 @@
       <c r="G88" s="3">
         <v>0.25900000000000001</v>
       </c>
-      <c r="H88" s="3">
-        <v>0</v>
+      <c r="H88" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>178</v>
       </c>
@@ -4493,23 +3624,14 @@
       <c r="G89" s="3">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J89" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -4531,23 +3653,14 @@
       <c r="G90" s="3">
         <v>0.215</v>
       </c>
-      <c r="H90" s="3">
-        <v>0</v>
+      <c r="H90" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>137</v>
       </c>
@@ -4569,23 +3682,14 @@
       <c r="G91" s="3">
         <v>0.215</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J91" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>169</v>
       </c>
@@ -4607,23 +3711,14 @@
       <c r="G92" s="3">
         <v>0.16300000000000001</v>
       </c>
-      <c r="H92" s="3">
-        <v>0</v>
+      <c r="H92" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>31</v>
       </c>
@@ -4645,23 +3740,14 @@
       <c r="G93" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H93" s="3">
-        <v>0</v>
+      <c r="H93" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>32</v>
       </c>
@@ -4683,23 +3769,14 @@
       <c r="G94" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>33</v>
       </c>
@@ -4721,23 +3798,14 @@
       <c r="G95" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H95" s="3">
-        <v>0</v>
+      <c r="H95" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -4759,23 +3827,14 @@
       <c r="G96" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
+      <c r="H96" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>144</v>
       </c>
@@ -4797,23 +3856,14 @@
       <c r="G97" s="3">
         <v>0.1845</v>
       </c>
-      <c r="H97" s="3">
-        <v>0</v>
+      <c r="H97" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J97" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K97" s="3">
-        <v>0</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>145</v>
       </c>
@@ -4835,23 +3885,14 @@
       <c r="G98" s="3">
         <v>0.1845</v>
       </c>
-      <c r="H98" s="3">
-        <v>0</v>
+      <c r="H98" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J98" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>153</v>
       </c>
@@ -4873,23 +3914,14 @@
       <c r="G99" s="3">
         <v>0.216</v>
       </c>
-      <c r="H99" s="3">
-        <v>0</v>
+      <c r="H99" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3">
-        <v>0</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>154</v>
       </c>
@@ -4911,23 +3943,14 @@
       <c r="G100" s="3">
         <v>0.216</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>176</v>
       </c>
@@ -4949,23 +3972,14 @@
       <c r="G101" s="3">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J101" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -4987,23 +4001,14 @@
       <c r="G102" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>182</v>
       </c>
@@ -5025,23 +4030,14 @@
       <c r="G103" s="3">
         <v>0.13100000000000001</v>
       </c>
-      <c r="H103" s="3">
-        <v>0</v>
+      <c r="H103" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J103" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K103" s="3">
-        <v>0</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -5063,23 +4059,14 @@
       <c r="G104" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H104" s="3">
-        <v>0</v>
+      <c r="H104" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>37</v>
       </c>
@@ -5101,23 +4088,14 @@
       <c r="G105" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H105" s="3">
-        <v>0</v>
+      <c r="H105" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="3">
-        <v>0</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>150</v>
       </c>
@@ -5139,23 +4117,14 @@
       <c r="G106" s="3">
         <v>0.16189999999999999</v>
       </c>
-      <c r="H106" s="3">
-        <v>0</v>
+      <c r="H106" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J106" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K106" s="3">
-        <v>0</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>159</v>
       </c>
@@ -5177,23 +4146,14 @@
       <c r="G107" s="3">
         <v>0.18590000000000001</v>
       </c>
-      <c r="H107" s="3">
-        <v>0</v>
+      <c r="H107" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3">
-        <v>0</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>160</v>
       </c>
@@ -5215,23 +4175,14 @@
       <c r="G108" s="3">
         <v>0.18590000000000001</v>
       </c>
-      <c r="H108" s="3">
-        <v>0</v>
+      <c r="H108" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="3">
-        <v>0</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>38</v>
       </c>
@@ -5253,23 +4204,14 @@
       <c r="G109" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H109" s="3">
-        <v>0</v>
+      <c r="H109" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="3">
-        <v>0</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>165</v>
       </c>
@@ -5291,23 +4233,14 @@
       <c r="G110" s="3">
         <v>0.17749999999999999</v>
       </c>
-      <c r="H110" s="3">
-        <v>0</v>
+      <c r="H110" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>39</v>
       </c>
@@ -5329,23 +4262,14 @@
       <c r="G111" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H111" s="3">
-        <v>0</v>
+      <c r="H111" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3">
-        <v>0</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>164</v>
       </c>
@@ -5367,23 +4291,14 @@
       <c r="G112" s="3">
         <v>0.17199999999999999</v>
       </c>
-      <c r="H112" s="3">
-        <v>0</v>
+      <c r="H112" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="3">
-        <v>0</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>40</v>
       </c>
@@ -5405,23 +4320,14 @@
       <c r="G113" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H113" s="3">
-        <v>0</v>
+      <c r="H113" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3">
-        <v>0</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>43</v>
       </c>
@@ -5443,23 +4349,14 @@
       <c r="G114" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H114" s="3">
-        <v>0</v>
+      <c r="H114" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="3">
-        <v>0</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>168</v>
       </c>
@@ -5481,23 +4378,14 @@
       <c r="G115" s="3">
         <v>0.16880000000000001</v>
       </c>
-      <c r="H115" s="3">
-        <v>0</v>
+      <c r="H115" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="3">
-        <v>0</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>41</v>
       </c>
@@ -5519,23 +4407,14 @@
       <c r="G116" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="H116" s="3">
-        <v>0</v>
+      <c r="H116" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3">
-        <v>0</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>42</v>
       </c>
@@ -5557,23 +4436,14 @@
       <c r="G117" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H117" s="3">
-        <v>0</v>
+      <c r="H117" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="3">
-        <v>0</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>151</v>
       </c>
@@ -5595,23 +4465,14 @@
       <c r="G118" s="3">
         <v>0.14430000000000001</v>
       </c>
-      <c r="H118" s="3">
-        <v>0</v>
+      <c r="H118" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J118" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K118" s="3">
-        <v>0</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>166</v>
       </c>
@@ -5633,23 +4494,14 @@
       <c r="G119" s="3">
         <v>0.1618</v>
       </c>
-      <c r="H119" s="3">
-        <v>0</v>
+      <c r="H119" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="3">
-        <v>0</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>167</v>
       </c>
@@ -5671,23 +4523,14 @@
       <c r="G120" s="3">
         <v>0.1618</v>
       </c>
-      <c r="H120" s="3">
-        <v>0</v>
+      <c r="H120" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3">
-        <v>0</v>
-      </c>
-      <c r="L120" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>44</v>
       </c>
@@ -5709,23 +4552,14 @@
       <c r="G121" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H121" s="3">
-        <v>0</v>
+      <c r="H121" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="3">
-        <v>0</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>45</v>
       </c>
@@ -5747,23 +4581,14 @@
       <c r="G122" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H122" s="3">
-        <v>0</v>
+      <c r="H122" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3">
-        <v>0</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>46</v>
       </c>
@@ -5785,23 +4610,14 @@
       <c r="G123" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H123" s="3">
-        <v>0</v>
+      <c r="H123" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="3">
-        <v>0</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>170</v>
       </c>
@@ -5823,23 +4639,14 @@
       <c r="G124" s="3">
         <v>0.16009999999999999</v>
       </c>
-      <c r="H124" s="3">
-        <v>0</v>
+      <c r="H124" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="3">
-        <v>0</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>47</v>
       </c>
@@ -5861,23 +4668,14 @@
       <c r="G125" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H125" s="3">
-        <v>0</v>
+      <c r="H125" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="3">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>175</v>
       </c>
@@ -5899,23 +4697,14 @@
       <c r="G126" s="3">
         <v>0.1482</v>
       </c>
-      <c r="H126" s="3">
-        <v>0</v>
+      <c r="H126" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="3">
-        <v>0</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>156</v>
       </c>
@@ -5937,23 +4726,14 @@
       <c r="G127" s="3">
         <v>0.1303</v>
       </c>
-      <c r="H127" s="3">
-        <v>0</v>
+      <c r="H127" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J127" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K127" s="3">
-        <v>0</v>
-      </c>
-      <c r="L127" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>157</v>
       </c>
@@ -5975,23 +4755,14 @@
       <c r="G128" s="3">
         <v>0.1303</v>
       </c>
-      <c r="H128" s="3">
-        <v>0</v>
+      <c r="H128" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J128" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K128" s="3">
-        <v>0</v>
-      </c>
-      <c r="L128" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>173</v>
       </c>
@@ -6013,23 +4784,14 @@
       <c r="G129" s="3">
         <v>0.14419999999999999</v>
       </c>
-      <c r="H129" s="3">
-        <v>0</v>
+      <c r="H129" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="3">
-        <v>0</v>
-      </c>
-      <c r="L129" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>174</v>
       </c>
@@ -6051,23 +4813,14 @@
       <c r="G130" s="3">
         <v>0.14419999999999999</v>
       </c>
-      <c r="H130" s="3">
-        <v>0</v>
+      <c r="H130" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="3">
-        <v>0</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>48</v>
       </c>
@@ -6089,23 +4842,14 @@
       <c r="G131" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H131" s="3">
-        <v>0</v>
+      <c r="H131" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3">
-        <v>0</v>
-      </c>
-      <c r="L131" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>49</v>
       </c>
@@ -6127,23 +4871,14 @@
       <c r="G132" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H132" s="3">
-        <v>0</v>
+      <c r="H132" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="3">
-        <v>0</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
@@ -6165,23 +4900,14 @@
       <c r="G133" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H133" s="3">
-        <v>0</v>
+      <c r="H133" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="3">
-        <v>0</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -6203,23 +4929,14 @@
       <c r="G134" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H134" s="3">
-        <v>0</v>
+      <c r="H134" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3">
-        <v>0</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>50</v>
       </c>
@@ -6241,23 +4958,14 @@
       <c r="G135" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H135" s="3">
-        <v>0</v>
+      <c r="H135" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="3">
-        <v>0</v>
-      </c>
-      <c r="L135" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>179</v>
       </c>
@@ -6279,23 +4987,14 @@
       <c r="G136" s="3">
         <v>0.1288</v>
       </c>
-      <c r="H136" s="3">
-        <v>0</v>
+      <c r="H136" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3">
-        <v>0</v>
-      </c>
-      <c r="L136" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>181</v>
       </c>
@@ -6317,23 +5016,14 @@
       <c r="G137" s="3">
         <v>0.13780000000000001</v>
       </c>
-      <c r="H137" s="3">
-        <v>0</v>
+      <c r="H137" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3">
-        <v>0</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>51</v>
       </c>
@@ -6355,23 +5045,14 @@
       <c r="G138" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="H138" s="3">
-        <v>0</v>
+      <c r="H138" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="3">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
@@ -6393,23 +5074,14 @@
       <c r="G139" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H139" s="3">
-        <v>0</v>
+      <c r="H139" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="3">
-        <v>0</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>180</v>
       </c>
@@ -6431,23 +5103,14 @@
       <c r="G140" s="3">
         <v>0.1288</v>
       </c>
-      <c r="H140" s="3">
-        <v>0</v>
+      <c r="H140" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3">
-        <v>0</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>55</v>
       </c>
@@ -6469,23 +5132,14 @@
       <c r="G141" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H141" s="3">
-        <v>0</v>
+      <c r="H141" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3">
-        <v>0</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>162</v>
       </c>
@@ -6507,23 +5161,14 @@
       <c r="G142" s="3">
         <v>0.1095</v>
       </c>
-      <c r="H142" s="3">
-        <v>0</v>
+      <c r="H142" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J142" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K142" s="3">
-        <v>0</v>
-      </c>
-      <c r="L142" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>56</v>
       </c>
@@ -6545,23 +5190,14 @@
       <c r="G143" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="H143" s="3">
-        <v>0</v>
+      <c r="H143" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3">
-        <v>0</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>57</v>
       </c>
@@ -6583,23 +5219,14 @@
       <c r="G144" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="H144" s="3">
-        <v>0</v>
+      <c r="H144" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3">
-        <v>0</v>
-      </c>
-      <c r="L144" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>58</v>
       </c>
@@ -6621,23 +5248,14 @@
       <c r="G145" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="H145" s="3">
-        <v>0</v>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="3">
-        <v>0</v>
-      </c>
-      <c r="L145" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>59</v>
       </c>
@@ -6659,23 +5277,14 @@
       <c r="G146" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="H146" s="3">
-        <v>0</v>
+      <c r="H146" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
-      </c>
-      <c r="L146" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>171</v>
       </c>
@@ -6697,23 +5306,14 @@
       <c r="G147" s="3">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="H147" s="3">
-        <v>0</v>
+      <c r="H147" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J147" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K147" s="3">
-        <v>0</v>
-      </c>
-      <c r="L147" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>60</v>
       </c>
@@ -6735,23 +5335,14 @@
       <c r="G148" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H148" s="3">
-        <v>0</v>
+      <c r="H148" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="3">
-        <v>0</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>61</v>
       </c>
@@ -6773,23 +5364,14 @@
       <c r="G149" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H149" s="3">
-        <v>0</v>
+      <c r="H149" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3">
-        <v>0</v>
-      </c>
-      <c r="L149" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>177</v>
       </c>
@@ -6811,23 +5393,14 @@
       <c r="G150" s="3">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="H150" s="3">
-        <v>0</v>
+      <c r="H150" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J150" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K150" s="3">
-        <v>0</v>
-      </c>
-      <c r="L150" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>62</v>
       </c>
@@ -6849,23 +5422,14 @@
       <c r="G151" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="H151" s="3">
-        <v>0</v>
+      <c r="H151" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="3">
-        <v>0</v>
-      </c>
-      <c r="L151" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>63</v>
       </c>
@@ -6887,23 +5451,14 @@
       <c r="G152" s="3">
         <v>0.02</v>
       </c>
-      <c r="H152" s="3">
-        <v>0</v>
+      <c r="H152" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3">
-        <v>0</v>
-      </c>
-      <c r="L152" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>64</v>
       </c>
@@ -6925,23 +5480,14 @@
       <c r="G153" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H153" s="3">
-        <v>0</v>
+      <c r="H153" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="3">
-        <v>0</v>
-      </c>
-      <c r="L153" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>65</v>
       </c>
@@ -6963,23 +5509,14 @@
       <c r="G154" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H154" s="3">
-        <v>0</v>
+      <c r="H154" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="3">
-        <v>0</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>66</v>
       </c>
@@ -7001,23 +5538,14 @@
       <c r="G155" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H155" s="3">
-        <v>0</v>
+      <c r="H155" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3">
-        <v>0</v>
-      </c>
-      <c r="L155" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>67</v>
       </c>
@@ -7039,23 +5567,14 @@
       <c r="G156" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="H156" s="3">
-        <v>0</v>
+      <c r="H156" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>68</v>
       </c>
@@ -7077,23 +5596,14 @@
       <c r="G157" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H157" s="3">
-        <v>0</v>
+      <c r="H157" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3">
-        <v>0</v>
-      </c>
-      <c r="L157" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>69</v>
       </c>
@@ -7115,23 +5625,14 @@
       <c r="G158" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H158" s="3">
-        <v>0</v>
+      <c r="H158" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3">
-        <v>0</v>
-      </c>
-      <c r="L158" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>70</v>
       </c>
@@ -7153,23 +5654,14 @@
       <c r="G159" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H159" s="3">
-        <v>0</v>
+      <c r="H159" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="3">
-        <v>0</v>
-      </c>
-      <c r="L159" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>71</v>
       </c>
@@ -7191,23 +5683,14 @@
       <c r="G160" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="H160" s="3">
-        <v>0</v>
+      <c r="H160" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3">
-        <v>0</v>
-      </c>
-      <c r="L160" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>72</v>
       </c>
@@ -7229,23 +5712,14 @@
       <c r="G161" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H161" s="3">
-        <v>0</v>
+      <c r="H161" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="3">
-        <v>0</v>
-      </c>
-      <c r="L161" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>73</v>
       </c>
@@ -7267,23 +5741,14 @@
       <c r="G162" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H162" s="3">
-        <v>0</v>
+      <c r="H162" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="3">
-        <v>0</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>74</v>
       </c>
@@ -7305,23 +5770,14 @@
       <c r="G163" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="H163" s="3">
-        <v>0</v>
+      <c r="H163" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="3">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>75</v>
       </c>
@@ -7343,23 +5799,14 @@
       <c r="G164" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H164" s="3">
-        <v>0</v>
+      <c r="H164" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3">
-        <v>0</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>77</v>
       </c>
@@ -7381,23 +5828,14 @@
       <c r="G165" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H165" s="3">
-        <v>0</v>
+      <c r="H165" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3">
-        <v>0</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>76</v>
       </c>
@@ -7419,23 +5857,14 @@
       <c r="G166" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H166" s="3">
-        <v>0</v>
+      <c r="H166" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="3">
-        <v>0</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>78</v>
       </c>
@@ -7457,23 +5886,14 @@
       <c r="G167" s="3">
         <v>0.01</v>
       </c>
-      <c r="H167" s="3">
-        <v>0</v>
+      <c r="H167" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3">
-        <v>0</v>
-      </c>
-      <c r="L167" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>79</v>
       </c>
@@ -7495,248 +5915,11 @@
       <c r="G168" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H168" s="3">
-        <v>0</v>
+      <c r="H168" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0</v>
-      </c>
-      <c r="L168" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B169" s="3">
-        <v>15.75</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D169" s="5">
-        <v>2.0121555762000004E-2</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" s="5">
-        <v>365</v>
-      </c>
-      <c r="G169" s="5">
-        <v>0</v>
-      </c>
-      <c r="H169" s="5">
-        <v>0.224</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J169" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K169" s="3">
-        <v>148</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B170" s="3">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D170" s="5">
-        <v>1.2072933457200001E-2</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F170" s="5">
-        <v>190</v>
-      </c>
-      <c r="G170" s="5">
-        <v>0</v>
-      </c>
-      <c r="H170" s="5">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K170" s="3">
-        <v>54.6</v>
-      </c>
-      <c r="L170" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B171" s="5">
-        <v>4.76</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D171" s="5">
-        <v>6.0811812969600006E-3</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F171" s="3">
-        <v>130</v>
-      </c>
-      <c r="G171" s="5">
-        <v>0</v>
-      </c>
-      <c r="H171" s="5">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K171" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="L171" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B172" s="5">
-        <v>6.11</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D172" s="5">
-        <v>7.805886076560002E-3</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F172" s="3">
-        <v>170</v>
-      </c>
-      <c r="G172" s="5">
-        <v>0</v>
-      </c>
-      <c r="H172" s="5">
-        <v>0.25340000000000001</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K172" s="3">
-        <v>29.32</v>
-      </c>
-      <c r="L172" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B173" s="5">
-        <v>6.11</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D173" s="5">
-        <v>7.805886076560002E-3</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F173" s="3">
-        <v>170</v>
-      </c>
-      <c r="G173" s="5">
-        <v>0</v>
-      </c>
-      <c r="H173" s="5">
-        <v>0.25340000000000001</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K173" s="3">
-        <v>29</v>
-      </c>
-      <c r="L173" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B174" s="5">
-        <v>10.88</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D174" s="5">
-        <v>1.3899842964480004E-2</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" s="3">
-        <v>355</v>
-      </c>
-      <c r="G174" s="5">
-        <v>0</v>
-      </c>
-      <c r="H174" s="5">
-        <v>7.9490000000000005E-2</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J174" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K174" s="3">
-        <v>93</v>
-      </c>
-      <c r="L174" s="3" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
